--- a/悖论模拟干员名单.xlsx
+++ b/悖论模拟干员名单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A47631-FE90-4A23-AD01-46B1992E3156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BC3498-5A53-4FC4-A158-B99D5E05CE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1631,7 +1631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1640,7 +1640,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1933,7 +1932,7 @@
   <dimension ref="A1:AE66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1968,7 +1967,7 @@
     <col min="28" max="28" width="13" style="2" customWidth="1"/>
     <col min="29" max="29" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5.5" style="1" customWidth="1"/>
-    <col min="31" max="31" width="26.75" style="4" customWidth="1"/>
+    <col min="31" max="31" width="26.75" style="2" customWidth="1"/>
     <col min="32" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -2116,7 +2115,7 @@
       <c r="AD2" s="1">
         <v>2</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="2" t="s">
         <v>456</v>
       </c>
     </row>
@@ -2190,7 +2189,7 @@
       <c r="AD3" s="1">
         <v>1</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="2" t="s">
         <v>458</v>
       </c>
     </row>
@@ -2264,7 +2263,7 @@
       <c r="AD4" s="1">
         <v>3</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AE4" s="2" t="s">
         <v>460</v>
       </c>
     </row>
@@ -2338,7 +2337,7 @@
       <c r="AD5" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AE5" s="2" t="s">
         <v>510</v>
       </c>
     </row>
@@ -2412,7 +2411,7 @@
       <c r="AD6" s="1">
         <v>1</v>
       </c>
-      <c r="AE6" s="4" t="s">
+      <c r="AE6" s="2" t="s">
         <v>463</v>
       </c>
     </row>
@@ -2486,7 +2485,7 @@
       <c r="AD7" s="1">
         <v>1</v>
       </c>
-      <c r="AE7" s="4" t="s">
+      <c r="AE7" s="2" t="s">
         <v>465</v>
       </c>
     </row>
@@ -2560,7 +2559,7 @@
       <c r="AD8" s="1">
         <v>2</v>
       </c>
-      <c r="AE8" s="4" t="s">
+      <c r="AE8" s="2" t="s">
         <v>467</v>
       </c>
     </row>
@@ -2634,7 +2633,7 @@
       <c r="AD9" s="1">
         <v>2</v>
       </c>
-      <c r="AE9" s="4" t="s">
+      <c r="AE9" s="2" t="s">
         <v>469</v>
       </c>
     </row>
@@ -2708,7 +2707,7 @@
       <c r="AD10" s="1">
         <v>3</v>
       </c>
-      <c r="AE10" s="4" t="s">
+      <c r="AE10" s="2" t="s">
         <v>471</v>
       </c>
     </row>
@@ -2782,7 +2781,7 @@
       <c r="AD11" s="1">
         <v>2</v>
       </c>
-      <c r="AE11" s="4" t="s">
+      <c r="AE11" s="2" t="s">
         <v>473</v>
       </c>
     </row>
@@ -2856,7 +2855,7 @@
       <c r="AD12" s="1">
         <v>8</v>
       </c>
-      <c r="AE12" s="4" t="s">
+      <c r="AE12" s="2" t="s">
         <v>475</v>
       </c>
     </row>
@@ -2930,7 +2929,7 @@
       <c r="AD13" s="1">
         <v>1</v>
       </c>
-      <c r="AE13" s="4" t="s">
+      <c r="AE13" s="2" t="s">
         <v>477</v>
       </c>
     </row>
@@ -3004,7 +3003,7 @@
       <c r="AD14" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="AE14" s="4" t="s">
+      <c r="AE14" s="2" t="s">
         <v>510</v>
       </c>
     </row>
@@ -3078,7 +3077,7 @@
       <c r="AD15" s="1">
         <v>2</v>
       </c>
-      <c r="AE15" s="4" t="s">
+      <c r="AE15" s="2" t="s">
         <v>480</v>
       </c>
     </row>
@@ -3152,7 +3151,7 @@
       <c r="AD16" s="1">
         <v>2</v>
       </c>
-      <c r="AE16" s="4" t="s">
+      <c r="AE16" s="2" t="s">
         <v>482</v>
       </c>
     </row>
@@ -3226,7 +3225,7 @@
       <c r="AD17" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="AE17" s="4" t="s">
+      <c r="AE17" s="2" t="s">
         <v>510</v>
       </c>
     </row>
@@ -3300,7 +3299,7 @@
       <c r="AD18" s="1">
         <v>2</v>
       </c>
-      <c r="AE18" s="4" t="s">
+      <c r="AE18" s="2" t="s">
         <v>485</v>
       </c>
     </row>
@@ -3374,7 +3373,7 @@
       <c r="AD19" s="1">
         <v>1</v>
       </c>
-      <c r="AE19" s="4" t="s">
+      <c r="AE19" s="2" t="s">
         <v>487</v>
       </c>
     </row>
@@ -3448,7 +3447,7 @@
       <c r="AD20" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="AE20" s="4" t="s">
+      <c r="AE20" s="2" t="s">
         <v>510</v>
       </c>
     </row>
@@ -3522,7 +3521,7 @@
       <c r="AD21" s="1">
         <v>2</v>
       </c>
-      <c r="AE21" s="4" t="s">
+      <c r="AE21" s="2" t="s">
         <v>490</v>
       </c>
     </row>
@@ -3596,7 +3595,7 @@
       <c r="AD22" s="1">
         <v>1</v>
       </c>
-      <c r="AE22" s="4" t="s">
+      <c r="AE22" s="2" t="s">
         <v>492</v>
       </c>
     </row>
@@ -3670,7 +3669,7 @@
       <c r="AD23" s="1">
         <v>1</v>
       </c>
-      <c r="AE23" s="4" t="s">
+      <c r="AE23" s="2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -3744,7 +3743,7 @@
       <c r="AD24" s="1">
         <v>3</v>
       </c>
-      <c r="AE24" s="4" t="s">
+      <c r="AE24" s="2" t="s">
         <v>496</v>
       </c>
     </row>
@@ -3818,7 +3817,7 @@
       <c r="AD25" s="1">
         <v>4</v>
       </c>
-      <c r="AE25" s="4" t="s">
+      <c r="AE25" s="2" t="s">
         <v>498</v>
       </c>
     </row>
@@ -3886,13 +3885,13 @@
       <c r="AA26" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="AC26" s="5" t="s">
+      <c r="AC26" s="4" t="s">
         <v>499</v>
       </c>
       <c r="AD26" s="1">
         <v>3</v>
       </c>
-      <c r="AE26" s="4" t="s">
+      <c r="AE26" s="2" t="s">
         <v>500</v>
       </c>
     </row>
@@ -3966,7 +3965,7 @@
       <c r="AD27" s="1">
         <v>1</v>
       </c>
-      <c r="AE27" s="4" t="s">
+      <c r="AE27" s="2" t="s">
         <v>502</v>
       </c>
     </row>
@@ -4040,7 +4039,7 @@
       <c r="AD28" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="AE28" s="4" t="s">
+      <c r="AE28" s="2" t="s">
         <v>510</v>
       </c>
     </row>
@@ -4114,7 +4113,7 @@
       <c r="AD29" s="1">
         <v>4</v>
       </c>
-      <c r="AE29" s="4" t="s">
+      <c r="AE29" s="2" t="s">
         <v>505</v>
       </c>
     </row>
@@ -4188,7 +4187,7 @@
       <c r="AD30" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="AE30" s="4" t="s">
+      <c r="AE30" s="2" t="s">
         <v>510</v>
       </c>
     </row>
@@ -4253,7 +4252,7 @@
       <c r="AD31" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="AE31" s="4" t="s">
+      <c r="AE31" s="2" t="s">
         <v>510</v>
       </c>
     </row>
@@ -4300,7 +4299,7 @@
       <c r="AD32" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="AE32" s="4" t="s">
+      <c r="AE32" s="2" t="s">
         <v>510</v>
       </c>
     </row>
@@ -4347,7 +4346,7 @@
       <c r="AD33" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="AE33" s="4" t="s">
+      <c r="AE33" s="2" t="s">
         <v>510</v>
       </c>
     </row>
@@ -4394,7 +4393,7 @@
       <c r="AD34" s="1">
         <v>0</v>
       </c>
-      <c r="AE34" s="4" t="s">
+      <c r="AE34" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4513,11 +4512,11 @@
       </c>
     </row>
     <row r="38" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
       <c r="E38" s="1" t="s">
         <v>143</v>
       </c>
@@ -4547,9 +4546,9 @@
       </c>
     </row>
     <row r="39" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
       <c r="E39" s="1" t="s">
         <v>144</v>
       </c>
@@ -4579,11 +4578,11 @@
       </c>
     </row>
     <row r="40" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
       <c r="E40" s="1" t="s">
         <v>146</v>
       </c>
@@ -4613,9 +4612,9 @@
       </c>
     </row>
     <row r="41" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
       <c r="E41" s="1" t="s">
         <v>147</v>
       </c>
@@ -4645,11 +4644,11 @@
       </c>
     </row>
     <row r="42" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
       <c r="E42" s="1" t="s">
         <v>149</v>
       </c>
@@ -4679,9 +4678,9 @@
       </c>
     </row>
     <row r="43" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
       <c r="E43" s="1" t="s">
         <v>150</v>
       </c>
@@ -4711,9 +4710,9 @@
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
       <c r="E44" s="1" t="s">
         <v>152</v>
       </c>
@@ -4743,9 +4742,9 @@
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
       <c r="E45" s="1" t="s">
         <v>154</v>
       </c>
